--- a/service-system/src/main/resources/static/标志.xlsx
+++ b/service-system/src/main/resources/static/标志.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768E37F-C2B3-46FB-8D96-7264F5E9AC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB1033-E12E-4AE6-982B-B95D2587F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标志" sheetId="1" r:id="rId1"/>
@@ -631,9 +631,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,9 +671,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,26 +706,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,26 +741,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -954,24 +920,24 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="E5" sqref="E5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.86328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" style="8" customWidth="1"/>
-    <col min="5" max="12" width="9.1328125" style="8" customWidth="1"/>
-    <col min="13" max="14" width="7.3984375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.3984375" style="10" customWidth="1"/>
-    <col min="16" max="17" width="9.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="8" customWidth="1"/>
+    <col min="5" max="12" width="9.125" style="8" customWidth="1"/>
+    <col min="13" max="14" width="7.375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="10" customWidth="1"/>
+    <col min="16" max="17" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
@@ -990,7 +956,7 @@
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +977,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1002,7 @@
       <c r="N3" s="42"/>
       <c r="O3" s="43"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1059,7 +1025,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1052,7 @@
       <c r="N5" s="31"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
@@ -1109,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1098,7 @@
       <c r="N7" s="37"/>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1119,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="14" t="s">
         <v>15</v>
@@ -1172,7 +1138,7 @@
       <c r="N9" s="20"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1159,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1180,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="14" t="s">
         <v>0</v>
@@ -1233,7 +1199,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1222,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
@@ -1275,7 +1241,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="16" t="s">
         <v>24</v>
@@ -1296,7 +1262,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
@@ -1315,7 +1281,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="16" t="s">
         <v>25</v>
@@ -1336,7 +1302,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
@@ -1355,7 +1321,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="16" t="s">
         <v>26</v>
@@ -1376,7 +1342,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
@@ -1395,7 +1361,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -1416,7 +1382,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
@@ -1435,7 +1401,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1525,9 +1491,7 @@
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L                检测：&amp;R                复核：                      </oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>